--- a/Extraction Grand Back FR - Responsabilités par utilisateur.xlsx
+++ b/Extraction Grand Back FR - Responsabilités par utilisateur.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1875BE51-F98B-4D7A-8E37-C2FD4A1197C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="20230" yWindow="3410" windowWidth="14450" windowHeight="8210" xr2:uid="{39657612-DE8A-440F-B57B-D87EE23D6FBA}"/>
+    <workbookView xWindow="16690" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{39657612-DE8A-440F-B57B-D87EE23D6FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
